--- a/biology/Zoologie/Diamant_à_bavette/Diamant_à_bavette.xlsx
+++ b/biology/Zoologie/Diamant_à_bavette/Diamant_à_bavette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_bavette</t>
+          <t>Diamant_à_bavette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poephila cincta
 Le Diamant à bavette (Poephila cincta) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_bavette</t>
+          <t>Diamant_à_bavette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Diamant à bavette se distingue du Diamant à longue queue par la bavette noire plus étendue et l'absence de rectrices médianes très développées. Son bec est noir alors que celui du Diamant longue queue est rouge.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_bavette</t>
+          <t>Diamant_à_bavette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>variétés domestiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seul un individu de variété crème ou ino, issu d'élevage, est considéré comme étant un animal domestique en droit français. Les autres formes de cet oiseau relèvent donc de la législation concernant les animaux sauvages[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seul un individu de variété crème ou ino, issu d'élevage, est considéré comme étant un animal domestique en droit français. Les autres formes de cet oiseau relèvent donc de la législation concernant les animaux sauvages.
 </t>
         </is>
       </c>
